--- a/biology/Botanique/Hemp_Museum_Gallery/Hemp_Museum_Gallery.xlsx
+++ b/biology/Botanique/Hemp_Museum_Gallery/Hemp_Museum_Gallery.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Hash Marihuana &amp; Hemp Museum est un musée situé à Barcelone et consacré à la culture du cannabis[1],[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Hash Marihuana &amp; Hemp Museum est un musée situé à Barcelone et consacré à la culture du cannabis,. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Édifice</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le musée est situé au Palau Mornau, la demeure a été construite par la noble famille Santcliment au XVIe siècle et se trouve au cœur du quartier gothique de Barcelone. À la fin du XVIIIe siècle, Josep Francesc Mornau, commissaire honoraire de la guerre de l'armée royale, a racheté le palais et l'a réformé. Au début du XXe siècle, Lluís de Nadal Artós, neveu du maire de Barcelone, Josep Maria de Nadal Vilardaga, hérita la maison et commanda à l'architecte moderniste Manuel Raspall, un agrandissement et une profonde refonte qui mit en évidence le fer forgé ainsi que les vitraux, en particulier la tribune principale  extérieure du premier étage. À l'intérieur, la prédominante cheminée du grand salon, les plafonds dorés à l’or fin, la marqueterie des parquets boisés, le patio andalou et sa fantastique verrière au plomb qui surplombe l’entrée principale  tous ces détails art nouveau font le charme de ce musée[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le musée est situé au Palau Mornau, la demeure a été construite par la noble famille Santcliment au XVIe siècle et se trouve au cœur du quartier gothique de Barcelone. À la fin du XVIIIe siècle, Josep Francesc Mornau, commissaire honoraire de la guerre de l'armée royale, a racheté le palais et l'a réformé. Au début du XXe siècle, Lluís de Nadal Artós, neveu du maire de Barcelone, Josep Maria de Nadal Vilardaga, hérita la maison et commanda à l'architecte moderniste Manuel Raspall, un agrandissement et une profonde refonte qui mit en évidence le fer forgé ainsi que les vitraux, en particulier la tribune principale  extérieure du premier étage. À l'intérieur, la prédominante cheminée du grand salon, les plafonds dorés à l’or fin, la marqueterie des parquets boisés, le patio andalou et sa fantastique verrière au plomb qui surplombe l’entrée principale  tous ces détails art nouveau font le charme de ce musée.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En  1985, l’entrepreneur néerlandais Ben Dronkers fonde le Hash Marihuana &amp; Hemp Museum à Amsterdam, le primer musée au monde dédié au cannabis, plus tard il ouvrit une deuxième réplique du musée à Barcelone. Les deux musées racontent le passé, le présent et le futur d’une plante, le cannabis. Le musée de Barcelone est inauguré le 9 mai 2012.
 </t>
@@ -573,7 +589,9 @@
           <t>Collection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La collection permanente présente plus de 8 000 pièces en relation avec le chanvre. De la culture à la consommation, des rituels anciens à la médecine moderne, tous les aspects de cannabis dans la culture humaine sont représentés d'une manière ou d'une autre.
 </t>
